--- a/public/uploads/rekap.xlsx
+++ b/public/uploads/rekap.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>No</t>
   </si>
@@ -43,22 +43,37 @@
     <t>Total</t>
   </si>
   <si>
-    <t>30-12-22/DH/12</t>
+    <t>15-1-23/DH/1</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>bustamar</t>
+  </si>
+  <si>
+    <t>1111112344232</t>
+  </si>
+  <si>
+    <t>aceh besar</t>
+  </si>
+  <si>
+    <t>Rp. 330000</t>
+  </si>
+  <si>
+    <t>15-1-23/DH/2</t>
+  </si>
+  <si>
+    <t>15-1-23/DH/3</t>
   </si>
   <si>
     <t>103</t>
   </si>
   <si>
-    <t>Said Jumadil Akbar</t>
-  </si>
-  <si>
-    <t>1174030609980005</t>
-  </si>
-  <si>
-    <t>Jakarta</t>
-  </si>
-  <si>
-    <t>Rp. 380000</t>
+    <t>Maicoe</t>
+  </si>
+  <si>
+    <t>Rp. 480000</t>
   </si>
 </sst>
 </file>
@@ -436,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
@@ -498,16 +513,80 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1">
-        <v>44923.70833333333</v>
+        <v>44939.70833333333</v>
       </c>
       <c r="I2" s="1">
-        <v>44924.70833333333</v>
+        <v>44940.70833333333</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44939.70833333333</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44940.70833333333</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>44939.70833333333</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44940.70833333333</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/rekap.xlsx
+++ b/public/uploads/rekap.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>No</t>
   </si>
@@ -41,39 +41,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>15-1-23/DH/1</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>bustamar</t>
-  </si>
-  <si>
-    <t>1111112344232</t>
-  </si>
-  <si>
-    <t>aceh besar</t>
-  </si>
-  <si>
-    <t>Rp. 330000</t>
-  </si>
-  <si>
-    <t>15-1-23/DH/2</t>
-  </si>
-  <si>
-    <t>15-1-23/DH/3</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Maicoe</t>
-  </si>
-  <si>
-    <t>Rp. 480000</t>
   </si>
 </sst>
 </file>
@@ -109,9 +76,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
@@ -493,102 +459,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1">
-        <v>44939.70833333333</v>
-      </c>
-      <c r="I2" s="1">
-        <v>44940.70833333333</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1">
-        <v>44939.70833333333</v>
-      </c>
-      <c r="I3" s="1">
-        <v>44940.70833333333</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>44939.70833333333</v>
-      </c>
-      <c r="I4" s="1">
-        <v>44940.70833333333</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/public/uploads/rekap.xlsx
+++ b/public/uploads/rekap.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>No</t>
   </si>
@@ -41,6 +41,24 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>18-2-23/DH/1</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Said Jumadil Akbar</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Banda</t>
+  </si>
+  <si>
+    <t>Rp. 380000</t>
   </si>
 </sst>
 </file>
@@ -76,8 +94,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
@@ -459,6 +478,38 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44973.70833333333</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44974.70833333333</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/public/uploads/rekap.xlsx
+++ b/public/uploads/rekap.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>No</t>
   </si>
@@ -41,24 +41,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>18-2-23/DH/1</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Said Jumadil Akbar</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Banda</t>
-  </si>
-  <si>
-    <t>Rp. 380000</t>
   </si>
 </sst>
 </file>
@@ -94,9 +76,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
@@ -478,38 +459,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>44973.70833333333</v>
-      </c>
-      <c r="I2" s="1">
-        <v>44974.70833333333</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
